--- a/Casos de Teste - Bellatrix.xlsx
+++ b/Casos de Teste - Bellatrix.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wafx-my.sharepoint.com/personal/rene_garcia_wafx_global/Documents/Ambiente de Trabalho/Projeto Bellatrix/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_AD4DF034E34935FBC521DC1EAFDF4E4A5BDEDD9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{386D7E9E-86CF-4B07-A014-59FBD3185EDD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Folha2!$A$1:$G$24</definedName>
+  </definedNames>
+  <calcPr calcId="162913" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +27,425 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="133">
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Título do Caso de Teste</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Dados de Entrada / Ação</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>Login com credenciais válidas</t>
+  </si>
+  <si>
+    <t>Verificar se o usuário consegue logar com usuário e senha válidos</t>
+  </si>
+  <si>
+    <t>Redirecionar para a página de produtos</t>
+  </si>
+  <si>
+    <t>Passou</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>Login com senha inválida</t>
+  </si>
+  <si>
+    <t>Verificar se o sistema exibe erro ao usar senha incorreta</t>
+  </si>
+  <si>
+    <t>Mensagem de erro: 'Username and password do not match...'</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Login com usuário bloqueado</t>
+  </si>
+  <si>
+    <t>Verificar se o login falha com usuário bloqueado</t>
+  </si>
+  <si>
+    <t>Mensagem de erro: 'Sorry, this user has been locked out.'</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>Campos de login vazios</t>
+  </si>
+  <si>
+    <t>Verificar validação com campos vazios</t>
+  </si>
+  <si>
+    <t>Campos em branco</t>
+  </si>
+  <si>
+    <t>Mensagem de erro obrigatória</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>Login com usuário problemático</t>
+  </si>
+  <si>
+    <t>Verificar comportamento com 'problem_user'</t>
+  </si>
+  <si>
+    <t>problem_user / secret_sauce</t>
+  </si>
+  <si>
+    <t>Login permitido, verificar anomalias na UI</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>Listagem de produtos</t>
+  </si>
+  <si>
+    <t>Verificar se todos os produtos são listados</t>
+  </si>
+  <si>
+    <t>Acessar página de produtos</t>
+  </si>
+  <si>
+    <t>Exibir 6 itens com nome, descrição e preço ($0,00)</t>
+  </si>
+  <si>
+    <t>Falhou</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>Ordenação A-Z</t>
+  </si>
+  <si>
+    <t>Validar ordenação alfabética crescente</t>
+  </si>
+  <si>
+    <t>Selecionar 'Name (A to Z)'</t>
+  </si>
+  <si>
+    <t>Produtos listados de A a Z</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Ordenação por preço (baixo-alto)</t>
+  </si>
+  <si>
+    <t>Validar ordenação por preço</t>
+  </si>
+  <si>
+    <t>Selecionar 'Price (low to high)'</t>
+  </si>
+  <si>
+    <t>Produtos listados do menor ao maior preço</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Visualizar detalhes do produto</t>
+  </si>
+  <si>
+    <t>Clicar em um produto</t>
+  </si>
+  <si>
+    <t>Selecionar produto</t>
+  </si>
+  <si>
+    <t>Produto detalhado com nome, preço e descrição</t>
+  </si>
+  <si>
+    <t>BLOQUEADO</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Adicionar item ao carrinho</t>
+  </si>
+  <si>
+    <t>Clicar em 'Add to cart'</t>
+  </si>
+  <si>
+    <t>Selecionar item e clicar</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Acessar o carrinho</t>
+  </si>
+  <si>
+    <t>Verificar se o carrinho abre corretamente</t>
+  </si>
+  <si>
+    <t>Clicar no ícone do carrinho</t>
+  </si>
+  <si>
+    <t>Página do carrinho é exibida</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Remover item do carrinho</t>
+  </si>
+  <si>
+    <t>Remover produto previamente adicionado</t>
+  </si>
+  <si>
+    <t>Clicar em 'Remove'</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>Verificar persistência dos itens</t>
+  </si>
+  <si>
+    <t>Verificar se itens permanecem após navegação</t>
+  </si>
+  <si>
+    <t>Adicionar item, navegar e voltar</t>
+  </si>
+  <si>
+    <t>Itens ainda listados no carrinho</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>Iniciar checkout</t>
+  </si>
+  <si>
+    <t>Verificar se inicia corretamente</t>
+  </si>
+  <si>
+    <t>Clicar em 'Checkout'</t>
+  </si>
+  <si>
+    <t>Exibição da tela de informações</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>Your Information - Preencher dados obrigatórios</t>
+  </si>
+  <si>
+    <t>Validar preenchimento correto</t>
+  </si>
+  <si>
+    <t>Nome, sobrenome, Codigo postal</t>
+  </si>
+  <si>
+    <t>Prosseguir para resumo</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Your Information - Campos obrigatórios em branco</t>
+  </si>
+  <si>
+    <t>Tentar avançar sem preencher</t>
+  </si>
+  <si>
+    <t>Campos vazios</t>
+  </si>
+  <si>
+    <t>Mensagem de erro de obrigatoriedade</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>Finalizar compra com sucesso</t>
+  </si>
+  <si>
+    <t>Completar o fluxo de compra</t>
+  </si>
+  <si>
+    <t>Preencher e clicar 'Finish'</t>
+  </si>
+  <si>
+    <t>Mensagem: 'THANK YOU FOR YOUR ORDER'</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>Cancelar compra</t>
+  </si>
+  <si>
+    <t>Clicar em 'Cancel' durante checkout</t>
+  </si>
+  <si>
+    <t>Botão 'Cancel'</t>
+  </si>
+  <si>
+    <t>Retorno à página de produtos</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>Verificar menu lateral</t>
+  </si>
+  <si>
+    <t>Abrir e validar o menu</t>
+  </si>
+  <si>
+    <t>Clicar no botão de menu</t>
+  </si>
+  <si>
+    <t>Exibição das opções de menu</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>Logout do usuário</t>
+  </si>
+  <si>
+    <t>Validar logout</t>
+  </si>
+  <si>
+    <t>Menu → Logout</t>
+  </si>
+  <si>
+    <t>Redireciona para tela de login</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>Responsividade da página</t>
+  </si>
+  <si>
+    <t>Verificar exibição em tamanhos diferentes</t>
+  </si>
+  <si>
+    <t>Reduzir/alterar o tamanho da janela</t>
+  </si>
+  <si>
+    <t>Layout adaptável e sem quebras</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>Acessibilidade básica</t>
+  </si>
+  <si>
+    <t>Verificar acessibilidade</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Usar Tab, Alt, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aria tags</t>
+    </r>
+  </si>
+  <si>
+    <t>A navegação via teclado funciona adequadamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Bloqueados</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Severidade</t>
+  </si>
+  <si>
+    <t>Anexos</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Evidencia:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atualiza o carrinho, porém fica na pagina de produtos</t>
+  </si>
+  <si>
+    <t>Item desaparece da  Lista e aparece a mensagem confirmando a exclusao do iten</t>
+  </si>
+  <si>
+    <t>Falta detalhes do login, porem aparecem os detalhes</t>
+  </si>
+  <si>
+    <t>Obs.: Não tem esta opção</t>
+  </si>
+  <si>
+    <t>Sem dados de Login</t>
+  </si>
+  <si>
+    <t>Não tem esta opção</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>Voltar Home</t>
+  </si>
+  <si>
+    <t>Clicar no botão Home</t>
+  </si>
+  <si>
+    <t>Botao Home</t>
+  </si>
+  <si>
+    <t>Voltar a pagina inicial</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +453,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +527,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Correto" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorreto" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +575,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>460939</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD7E938-391D-46F1-9659-7CCAED4C55F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16843813" y="229378"/>
+          <a:ext cx="2886201" cy="1423638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111673</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>364777</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>158334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A807582-99F4-47E7-894F-3FB2F9A654ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779548" y="7645724"/>
+          <a:ext cx="4005954" cy="1656610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +932,621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D88E58F-13DF-4F2D-9DE1-15A7B4F3F18D}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G24" xr:uid="{1D88E58F-13DF-4F2D-9DE1-15A7B4F3F18D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G24">
+      <sortCondition ref="F1:F24"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>